--- a/data/teaches.xlsx
+++ b/data/teaches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\code\xk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAE9B9-0B7B-4AFF-801E-A0BD27F95E97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8D8D55-19E6-48D6-8047-F90F97831706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6048" xr2:uid="{AA1A5528-7076-40B7-8C0D-6266F02C9140}"/>
   </bookViews>
@@ -799,7 +799,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -812,10 +812,10 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
